--- a/saucedodemo_TestComplete/datos1.xlsx
+++ b/saucedodemo_TestComplete/datos1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon Espinosa\Documents\Demo_saucedo\demo_test_Brandon\saucedodemo_TestComplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6600674-7F0A-42D9-B430-E26CE3F567B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2F424-46F6-4B72-9565-92E2283296E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B5BAE255-4AE0-429F-B386-917909943865}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>problem_user</t>
+    <t>performance_glitch_user</t>
   </si>
 </sst>
 </file>
@@ -470,27 +470,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7D2026-38BC-4E89-B170-3AE59EFBF621}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" customWidth="1"/>
     <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="30.08984375" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="8" width="27.6328125" customWidth="1"/>
     <col min="9" max="9" width="26.6328125" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" customWidth="1"/>
     <col min="15" max="15" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -518,11 +519,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -548,15 +549,15 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>13454</v>
-      </c>
-      <c r="O2" s="1" t="s">
+        <v>32453525</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{23A47627-AC54-4AC8-9187-CE54DFD1A54D}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{23A47627-AC54-4AC8-9187-CE54DFD1A54D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
